--- a/Machine Learning/DataUN_Train.xlsx
+++ b/Machine Learning/DataUN_Train.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Kuliah\Google Bangkit\Capstone\Capstone_Bangkit\Machine Learning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Kuliah\Google_Bangkit\Capstone\Capstone_Bangkit\Machine Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F855EC3-AE65-44C6-9832-BBB059C2D2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE3795C-2FA9-4688-9503-4B5B19B66DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0B65ED4D-27FF-4F6A-A1A4-EA5954B7D2A0}"/>
   </bookViews>
@@ -436,7 +436,7 @@
   <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K52"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1117,7 +1117,7 @@
         <v>54.5</v>
       </c>
       <c r="D20">
-        <v>57.4</v>
+        <v>71</v>
       </c>
       <c r="E20">
         <v>49.1</v>
@@ -1126,7 +1126,7 @@
         <v>53.5</v>
       </c>
       <c r="G20">
-        <v>65.3</v>
+        <v>73.8</v>
       </c>
       <c r="H20">
         <v>43</v>
@@ -1342,7 +1342,7 @@
         <v>65.400000000000006</v>
       </c>
       <c r="I26">
-        <v>613</v>
+        <v>61.3</v>
       </c>
       <c r="J26">
         <v>37</v>
@@ -1671,13 +1671,13 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="C36">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D36">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="E36">
         <v>55.4</v>
@@ -1686,7 +1686,7 @@
         <v>76.3</v>
       </c>
       <c r="G36">
-        <v>56.3</v>
+        <v>88.2</v>
       </c>
       <c r="H36">
         <v>64.599999999999994</v>
@@ -1849,10 +1849,10 @@
         <v>43.8</v>
       </c>
       <c r="C41">
-        <v>43.8</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="D41">
-        <v>45.9</v>
+        <v>78.3</v>
       </c>
       <c r="E41">
         <v>53.2</v>
@@ -2237,7 +2237,7 @@
         <v>55.2</v>
       </c>
       <c r="D52">
-        <v>59.3</v>
+        <v>75</v>
       </c>
       <c r="E52">
         <v>59.7</v>
